--- a/data/Eksklusionslister/Sydinvest_eksklusionsliste_isin.xlsx
+++ b/data/Eksklusionslister/Sydinvest_eksklusionsliste_isin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2242,49 +2242,49 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BSU</t>
+          <t>Bukit Asam Tbk PT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Øvrige</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>bsu</t>
+          <t>bukitasamtbkpt</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['XS2713768807']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[nan]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Adib Sukuk Co II Ltd']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Svendborg', 'Hedensted', 'Slagelse']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bukit Asam Tbk PT</t>
+          <t>BUKIT MAKMUR MANDIRI UTA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>bukitasamtbkpt</t>
+          <t>bukitmakmurmandiriuta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2326,22 +2326,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BUKIT MAKMUR MANDIRI UTA</t>
+          <t>Bulgartabac Holding AD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>bukitmakmurmandiriuta</t>
+          <t>bulgartabacholdingad</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2368,22 +2368,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bulgartabac Holding AD</t>
+          <t>Bumi Resources Tbk PT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>bulgartabacholdingad</t>
+          <t>bumiresourcestbkpt</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2410,22 +2410,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bumi Resources Tbk PT</t>
+          <t>Canadian Natural Resources Ltd</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Oliesand</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>bumiresourcestbkpt</t>
+          <t>canadiannaturalresourcesltd</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Canadian Natural Resources Ltd</t>
+          <t>Canadian Oil Sands Ltd</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>canadiannaturalresourcesltd</t>
+          <t>canadianoilsandsltd</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2494,22 +2494,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Canadian Oil Sands Ltd</t>
+          <t>Carreras Ltd/Jamaica</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Oliesand</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>canadianoilsandsltd</t>
+          <t>carrerasltdjamaica</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2536,22 +2536,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Carreras Ltd/Jamaica</t>
+          <t>Cenovus Energy Inc</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Oliesand</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>carrerasltdjamaica</t>
+          <t>cenovusenergyinc</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2578,22 +2578,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cenovus Energy Inc</t>
+          <t>Ceylon Tobacco Co PLC</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>LK</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Oliesand</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cenovusenergyinc</t>
+          <t>ceylontobaccocoplc</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2620,22 +2620,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ceylon Tobacco Co PLC</t>
+          <t>CH ENERGY ENG</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ceylontobaccocoplc</t>
+          <t>chenergyeng</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2662,12 +2662,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CH ENERGY ENG</t>
+          <t>CH Karnchang PCL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>chenergyeng</t>
+          <t>chkarnchangpcl</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2704,22 +2704,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CH Karnchang PCL</t>
+          <t>Charlie's Holdings Inc</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>chkarnchangpcl</t>
+          <t>charliesholdingsinc</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2746,22 +2746,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Charlie's Holdings Inc</t>
+          <t>CHINA AERO SCI &amp; TECH</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Klyngebomber</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>charliesholdingsinc</t>
+          <t>chinaaeroscitech</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHINA AERO SCI &amp; TECH</t>
+          <t>China Baowu Steel Group Corp L</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Klyngebomber</t>
+          <t>Arbejdstagerrettigheder</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>chinaaeroscitech</t>
+          <t>chinabaowusteelgroupcorpl</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2830,22 +2830,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>China Baowu Steel Group Corp L</t>
+          <t>China Boton Group Co Ltd</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Arbejdstagerrettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>chinabaowusteelgroupcorpl</t>
+          <t>chinabotongroupcoltd</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2872,22 +2872,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>China Boton Group Co Ltd</t>
+          <t>China Coal Energy Co Ltd</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>chinabotongroupcoltd</t>
+          <t>chinacoalenergycoltd</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2914,7 +2914,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>China Coal Energy Co Ltd</t>
+          <t>CHINA HUARONG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2924,12 +2924,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>chinacoalenergycoltd</t>
+          <t>chinahuarong</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CHINA HUARONG</t>
+          <t>CHINA NATL PETROLEUM CO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>chinahuarong</t>
+          <t>chinanatlpetroleumco</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2998,7 +2998,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CHINA NATL PETROLEUM CO</t>
+          <t>CHINA NORTH INDU GROUP</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Klyngebomber</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>chinanatlpetroleumco</t>
+          <t>chinanorthindugroup</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CHINA NORTH INDU GROUP</t>
+          <t>China Shenhua Energy Co Ltd</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3050,12 +3050,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Klyngebomber</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>chinanorthindugroup</t>
+          <t>chinashenhuaenergycoltd</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3082,22 +3082,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>China Shenhua Energy Co Ltd</t>
+          <t>China Tobacco International HK</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>chinashenhuaenergycoltd</t>
+          <t>chinatobaccointernationalhk</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3124,12 +3124,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>China Tobacco International HK</t>
+          <t>Cia de Distribucion Integral L</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>chinatobaccointernationalhk</t>
+          <t>ciadedistribucionintegrall</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3166,22 +3166,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cia de Distribucion Integral L</t>
+          <t>CIA Nationala Romarm SA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Klyngebomber</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ciadedistribucionintegrall</t>
+          <t>cianationalaromarmsa</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3208,22 +3208,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CIA Nationala Romarm SA</t>
+          <t>CK Power PCL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Klyngebomber</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>cianationalaromarmsa</t>
+          <t>ckpowerpcl</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3250,12 +3250,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CK Power PCL</t>
+          <t>CNPC Capital Co Ltd</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ckpowerpcl</t>
+          <t>cnpccapitalcoltd</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CNPC Capital Co Ltd</t>
+          <t>CNRE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>cnpccapitalcoltd</t>
+          <t>cnre</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3334,22 +3334,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CNRE</t>
+          <t>Coal India Ltd</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Arbejdstagerrettigheder,Termisk Kul</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>cnre</t>
+          <t>coalindialtd</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3376,22 +3376,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Coal India Ltd</t>
+          <t>Coka Duvanska Industrija AD Co</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Arbejdstagerrettigheder,Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>coalindialtd</t>
+          <t>cokaduvanskaindustrijaadco</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3418,22 +3418,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Coka Duvanska Industrija AD Co</t>
+          <t>CONSOL ENERGY INC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>cokaduvanskaindustrijaadco</t>
+          <t>consolenergyinc</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3460,22 +3460,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CONSOL ENERGY INC</t>
+          <t>Cox &amp; Kings Ltd</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Øvrige</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>consolenergyinc</t>
+          <t>coxkingsltd</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3502,22 +3502,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cox &amp; Kings Ltd</t>
+          <t>Cyprus Trading Corp PLC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Øvrige</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>coxkingsltd</t>
+          <t>cyprustradingcorpplc</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3544,22 +3544,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cyprus Trading Corp PLC</t>
+          <t>Day &amp; Zimmermann Group Inc/The</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Vestbredden</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>cyprustradingcorpplc</t>
+          <t>dayzimmermanngroupincthe</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3586,22 +3586,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Day &amp; Zimmermann Group Inc/The</t>
+          <t>Delta Dunia Makmur Tbk PT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Vestbredden</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>dayzimmermanngroupincthe</t>
+          <t>deltaduniamakmurtbkpt</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3628,12 +3628,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Delta Dunia Makmur Tbk PT</t>
+          <t>DMCI Holdings Inc</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>deltaduniamakmurtbkpt</t>
+          <t>dmciholdingsinc</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3670,22 +3670,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DMCI Holdings Inc</t>
+          <t>Eastern Co SAE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>dmciholdingsinc</t>
+          <t>easterncosae</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3712,22 +3712,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Eastern Co SAE</t>
+          <t>Elbit Systems Ltd</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Vestbredden</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>easterncosae</t>
+          <t>elbitsystemsltd</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3754,22 +3754,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Elbit Systems Ltd</t>
+          <t>Erdos</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Vestbredden</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>elbitsystemsltd</t>
+          <t>erdos</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3796,22 +3796,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Erdos</t>
+          <t>Eurocash SA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>erdos</t>
+          <t>eurocashsa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3838,22 +3838,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Eurocash SA</t>
+          <t>EXPORT-IMPORT BK INDIA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>eurocashsa</t>
+          <t>exportimportbkindia</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3880,22 +3880,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EXPORT-IMPORT BK INDIA</t>
+          <t>Exxaro Resources Ltd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>exportimportbkindia</t>
+          <t>exxaroresourcesltd</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3922,12 +3922,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Exxaro Resources Ltd</t>
+          <t>FREEPORT INDONESIA PT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>exxaroresourcesltd</t>
+          <t>freeportindonesiapt</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3964,22 +3964,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FREEPORT INDONESIA PT</t>
+          <t>Fyolo Technology Corp</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>freeportindonesiapt</t>
+          <t>fyolotechnologycorp</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4006,22 +4006,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Fyolo Technology Corp</t>
+          <t>Gazprom Neft OAO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>fyolotechnologycorp</t>
+          <t>gazpromneftoao</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4048,7 +4048,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Gazprom Neft OAO</t>
+          <t>Gazprom PJSC</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>gazpromneftoao</t>
+          <t>gazprompjsc</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4090,7 +4090,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Gazprom PJSC</t>
+          <t>Gazprombank JSC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>gazprompjsc</t>
+          <t>gazprombankjsc</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4132,22 +4132,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Gazprombank JSC</t>
+          <t>General Dynamics Corp</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Klyngebomber</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>gazprombankjsc</t>
+          <t>generaldynamicscorp</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4174,22 +4174,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>General Dynamics Corp</t>
+          <t>Geo Energy Resources Ltd</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Klyngebomber</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>generaldynamicscorp</t>
+          <t>geoenergyresourcesltd</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4216,12 +4216,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Geo Energy Resources Ltd</t>
+          <t>GLENCORE CAP FIN DAC</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>geoenergyresourcesltd</t>
+          <t>glencorecapfindac</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4258,12 +4258,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GLENCORE CAP FIN DAC</t>
+          <t>GLENCORE FINANCE EUROPE</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>JE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>glencorecapfindac</t>
+          <t>glencorefinanceeurope</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4300,22 +4300,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GLENCORE FINANCE EUROPE</t>
+          <t>Glencore International PLC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JE</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Menneskerettigheder,Termisk Kul</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>glencorefinanceeurope</t>
+          <t>glencoreinternationalplc</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4342,22 +4342,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Glencore International PLC</t>
+          <t>Globrands Ltd</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Menneskerettigheder,Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>glencoreinternationalplc</t>
+          <t>globrandsltd</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4384,12 +4384,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Globrands Ltd</t>
+          <t>Godfrey Phillips India Ltd</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>globrandsltd</t>
+          <t>godfreyphillipsindialtd</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4426,22 +4426,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Godfrey Phillips India Ltd</t>
+          <t>Golden Energy &amp; Resources Ltd</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>godfreyphillipsindialtd</t>
+          <t>goldenenergyresourcesltd</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4468,22 +4468,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Golden Energy &amp; Resources Ltd</t>
+          <t>Golden Tobacco Ltd</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>goldenenergyresourcesltd</t>
+          <t>goldentobaccoltd</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4510,12 +4510,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Golden Tobacco Ltd</t>
+          <t>Gotse Delchev Tabac AD-Gotse D</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>goldentobaccoltd</t>
+          <t>gotsedelchevtabacadgotsed</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4552,22 +4552,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Gotse Delchev Tabac AD-Gotse D</t>
+          <t>Guanghui Energy Co Ltd</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>gotsedelchevtabacadgotsed</t>
+          <t>guanghuienergycoltd</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4594,22 +4594,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Guanghui Energy Co Ltd</t>
+          <t>Gudang Garam Tbk PT</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>guanghuienergycoltd</t>
+          <t>gudanggaramtbkpt</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4636,22 +4636,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Gudang Garam Tbk PT</t>
+          <t>Gujarat Mineral Development Co</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>gudanggaramtbkpt</t>
+          <t>gujaratmineraldevelopmentco</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4678,12 +4678,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Gujarat Mineral Development Co</t>
+          <t>Hallador Energy Co</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>gujaratmineraldevelopmentco</t>
+          <t>halladorenergyco</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4720,22 +4720,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hallador Energy Co</t>
+          <t>Hanjaya Mandala Sampoerna Tbk</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>halladorenergyco</t>
+          <t>hanjayamandalasampoernatbk</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4762,7 +4762,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Hanjaya Mandala Sampoerna Tbk</t>
+          <t>Harum Energy Tbk PT</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>hanjayamandalasampoernatbk</t>
+          <t>harumenergytbkpt</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4804,12 +4804,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Harum Energy Tbk PT</t>
+          <t>Hosken Consolidated Investment</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>harumenergytbkpt</t>
+          <t>hoskenconsolidatedinvestment</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4846,22 +4846,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Hosken Consolidated Investment</t>
+          <t>HUABAO INTL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>hoskenconsolidatedinvestment</t>
+          <t>huabaointl</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4888,22 +4888,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HUABAO INTL</t>
+          <t>HUADIAN POWER</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>huabaointl</t>
+          <t>huadianpower</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4930,7 +4930,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HUADIAN POWER</t>
+          <t>Huafu Fashion Co Ltd</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Arbejdstagerrettigheder</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>huadianpower</t>
+          <t>huafufashioncoltd</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4972,7 +4972,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Huafu Fashion Co Ltd</t>
+          <t>Huaibei Mining Holdings Co Ltd</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4982,12 +4982,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Arbejdstagerrettigheder</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>huafufashioncoltd</t>
+          <t>huaibeiminingholdingscoltd</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5014,22 +5014,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Huaibei Mining Holdings Co Ltd</t>
+          <t>IMPERIAL BRANDS FIN NETH</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>huaibeiminingholdingscoltd</t>
+          <t>imperialbrandsfinneth</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5056,12 +5056,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IMPERIAL BRANDS FIN NETH</t>
+          <t>IMPERIAL BRANDS FIN PLC</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>imperialbrandsfinneth</t>
+          <t>imperialbrandsfinplc</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5098,7 +5098,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IMPERIAL BRANDS FIN PLC</t>
+          <t>Imperial Brands PLC</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>imperialbrandsfinplc</t>
+          <t>imperialbrandsplc</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5140,22 +5140,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Imperial Brands PLC</t>
+          <t>INDIKA ENERGY CAPITAL IV</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>imperialbrandsplc</t>
+          <t>indikaenergycapitaliv</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>INDIKA ENERGY CAPITAL IV</t>
+          <t>INDIKA ENERGY III PTE</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>indikaenergycapitaliv</t>
+          <t>indikaenergyiiipte</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5224,12 +5224,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>INDIKA ENERGY III PTE</t>
+          <t>INDIKA INTI ENERGI PT</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>indikaenergyiiipte</t>
+          <t>indikaintienergipt</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5266,7 +5266,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>INDIKA INTI ENERGI PT</t>
+          <t>Indo Tambangraya Megah Tbk PT</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>indikaintienergipt</t>
+          <t>indotambangrayamegahtbkpt</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Indo Tambangraya Megah Tbk PT</t>
+          <t>INDONESIA ASAHAN ALUMINI</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>indotambangrayamegahtbkpt</t>
+          <t>indonesiaasahanalumini</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5350,7 +5350,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>INDONESIA ASAHAN ALUMINI</t>
+          <t>Indonesian Tobacco Tbk PT</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5360,12 +5360,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>indonesiaasahanalumini</t>
+          <t>indonesiantobaccotbkpt</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5392,22 +5392,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Indonesian Tobacco Tbk PT</t>
+          <t>Irkut Corp PJSC</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>indonesiantobaccotbkpt</t>
+          <t>irkutcorppjsc</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5434,22 +5434,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Irkut Corp PJSC</t>
+          <t>Israel Aerospace Industries Lt</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Klyngebomber</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>irkutcorppjsc</t>
+          <t>israelaerospaceindustrieslt</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5476,22 +5476,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Israel Aerospace Industries Lt</t>
+          <t>ITC Ltd</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Klyngebomber</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>israelaerospaceindustrieslt</t>
+          <t>itcltd</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5518,12 +5518,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ITC Ltd</t>
+          <t>Japan Tobacco Inc</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>itcltd</t>
+          <t>japantobaccoinc</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5560,22 +5560,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Japan Tobacco Inc</t>
+          <t>Jardine Cycle &amp; Carriage Ltd</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>japantobaccoinc</t>
+          <t>jardinecyclecarriageltd</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5602,12 +5602,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Jardine Cycle &amp; Carriage Ltd</t>
+          <t>Jardine Matheson Holdings Ltd</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>jardinecyclecarriageltd</t>
+          <t>jardinemathesonholdingsltd</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5644,12 +5644,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Jardine Matheson Holdings Ltd</t>
+          <t>Jastrzebska Spolka Weglowa SA</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>jardinemathesonholdingsltd</t>
+          <t>jastrzebskaspolkaweglowasa</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5686,22 +5686,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Jastrzebska Spolka Weglowa SA</t>
+          <t>Jerusalem Cigarette Co Ltd</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>jastrzebskaspolkaweglowasa</t>
+          <t>jerusalemcigarettecoltd</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5728,22 +5728,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Jerusalem Cigarette Co Ltd</t>
+          <t>JSW Energy Ltd</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>jerusalemcigarettecoltd</t>
+          <t>jswenergyltd</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5770,22 +5770,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>JSW Energy Ltd</t>
+          <t>JT INTL FIN SERVICES BV</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>jswenergyltd</t>
+          <t>jtintlfinservicesbv</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5812,22 +5812,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>JT INTL FIN SERVICES BV</t>
+          <t>JZEG</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>jtintlfinservicesbv</t>
+          <t>jzeg</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5854,22 +5854,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>JZEG</t>
+          <t>Karelia Tobacco Co Inc SA</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>jzeg</t>
+          <t>kareliatobaccocoincsa</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5896,12 +5896,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Karelia Tobacco Co Inc SA</t>
+          <t>Khyber Tobacco Co Ltd</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>kareliatobaccocoincsa</t>
+          <t>khybertobaccocoltd</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5938,12 +5938,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Khyber Tobacco Co Ltd</t>
+          <t>KT&amp;G Corp</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>khybertobaccocoltd</t>
+          <t>ktgcorp</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5980,12 +5980,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>KT&amp;G Corp</t>
+          <t>Kumulus Vape SACA</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ktgcorp</t>
+          <t>kumulusvapesaca</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6022,22 +6022,22 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Kumulus Vape SACA</t>
+          <t>Larsen &amp; Toubro Ltd</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Atomvåben</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>kumulusvapesaca</t>
+          <t>larsentoubroltd</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6064,22 +6064,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Ltd</t>
+          <t>LIG Nex1 Co Ltd</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Atomvåben</t>
+          <t>Klyngebomber</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>larsentoubroltd</t>
+          <t>lignex1coltd</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6106,12 +6106,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>LIG Nex1 Co Ltd</t>
+          <t>Lockheed Martin Corp</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>lignex1coltd</t>
+          <t>lockheedmartincorp</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6148,22 +6148,22 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lockheed Martin Corp</t>
+          <t>LTIMindtree Ltd</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Klyngebomber</t>
+          <t>Atomvåben</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>lockheedmartincorp</t>
+          <t>ltimindtreeltd</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6190,22 +6190,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>LTIMindtree Ltd</t>
+          <t>lu'an EED</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Atomvåben</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ltimindtreeltd</t>
+          <t>luaneed</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6232,12 +6232,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>lu'an EED</t>
+          <t>LX INTERNATIONAL CORP</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>luaneed</t>
+          <t>lxinternationalcorp</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6274,22 +6274,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>LX INTERNATIONAL CORP</t>
+          <t>MEG Energy Corp</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Oliesand</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>lxinternationalcorp</t>
+          <t>megenergycorp</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6316,22 +6316,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MEG Energy Corp</t>
+          <t>Metallurgical Corp of China Lt</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Oliesand</t>
+          <t>Øvrige</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>megenergycorp</t>
+          <t>metallurgicalcorpofchinalt</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6358,22 +6358,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Metallurgical Corp of China Lt</t>
+          <t>Metcash Ltd</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Øvrige</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>metallurgicalcorpofchinalt</t>
+          <t>metcashltd</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6400,22 +6400,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Metcash Ltd</t>
+          <t>Mindtree Ltd</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Atomvåben</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>metcashltd</t>
+          <t>mindtreeltd</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6442,22 +6442,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mindtree Ltd</t>
+          <t>Mumias Sugar Co Ltd</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Atomvåben</t>
+          <t>Øvrige</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>mindtreeltd</t>
+          <t>mumiassugarcoltd</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6484,22 +6484,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mumias Sugar Co Ltd</t>
+          <t>New Hope Corp Ltd</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>KE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Øvrige</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>mumiassugarcoltd</t>
+          <t>newhopecorpltd</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6526,22 +6526,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>New Hope Corp Ltd</t>
+          <t>Ngan Son JSC</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>VN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>newhopecorpltd</t>
+          <t>ngansonjsc</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6568,12 +6568,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ngan Son JSC</t>
+          <t>Nikotiana BT Holding AD Sofia</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>VN</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>ngansonjsc</t>
+          <t>nikotianabtholdingadsofia</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6610,22 +6610,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Nikotiana BT Holding AD Sofia</t>
+          <t>NIS ad Novi Sad</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>nikotianabtholdingadsofia</t>
+          <t>nisadnovisad</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6652,22 +6652,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NIS ad Novi Sad</t>
+          <t>NLC India Ltd</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Arbejdstagerrettigheder,Termisk Kul</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>nisadnovisad</t>
+          <t>nlcindialtd</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6694,7 +6694,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NLC India Ltd</t>
+          <t>NTC Industries Ltd</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6704,12 +6704,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Arbejdstagerrettigheder,Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>nlcindialtd</t>
+          <t>ntcindustriesltd</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6736,22 +6736,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NTC Industries Ltd</t>
+          <t>Okomu Oil Palm PLC</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ntcindustriesltd</t>
+          <t>okomuoilpalmplc</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6778,22 +6778,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Okomu Oil Palm PLC</t>
+          <t>OPENCUT COAL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>okomuoilpalmplc</t>
+          <t>opencutcoal</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6820,22 +6820,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>OPENCUT COAL</t>
+          <t>Orascom Investment Holding</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>opencutcoal</t>
+          <t>orascominvestmentholding</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6862,22 +6862,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Orascom Investment Holding</t>
+          <t>Pakistan Tobacco Co Ltd</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>orascominvestmentholding</t>
+          <t>pakistantobaccocoltd</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6904,22 +6904,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Pakistan Tobacco Co Ltd</t>
+          <t>PEABODY ENERGY CORP</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>pakistantobaccocoltd</t>
+          <t>peabodyenergycorp</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6946,12 +6946,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PEABODY ENERGY CORP</t>
+          <t>Perennial Energy Holdings Ltd</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>peabodyenergycorp</t>
+          <t>perennialenergyholdingsltd</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6988,49 +6988,49 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Perennial Energy Holdings Ltd</t>
+          <t>Performance Food Group Co</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>perennialenergyholdingsltd</t>
+          <t>performancefoodgroupco</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['US71377A1034']</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[nan, 'Performance Food Group Co.']</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Performance Food Group Co.']</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Egedal', 'Favrskov', 'Region Sjælland', 'Jammerbugt']</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Performance Food Group Co</t>
+          <t>PERFORMANCE FOOD GROUP I</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7045,49 +7045,49 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>performancefoodgroupco</t>
+          <t>performancefoodgroupi</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>['US71377A1034']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[nan, 'Performance Food Group Co.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>['Performance Food Group Co.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>['Egedal', 'Favrskov', 'Region Sjælland', 'Jammerbugt']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PERFORMANCE FOOD GROUP I</t>
+          <t>Petrindo Jaya Kreasi Tbk PT</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>performancefoodgroupi</t>
+          <t>petrindojayakreasitbkpt</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7114,22 +7114,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Petrindo Jaya Kreasi Tbk PT</t>
+          <t>PetroChina Co Ltd</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>petrindojayakreasitbkpt</t>
+          <t>petrochinacoltd</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7156,22 +7156,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PetroChina Co Ltd</t>
+          <t>Philip Morris CR AS</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>petrochinacoltd</t>
+          <t>philipmorriscras</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7198,12 +7198,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Philip Morris CR AS</t>
+          <t>PHILIP MORRIS INTL INC</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>philipmorriscras</t>
+          <t>philipmorrisintlinc</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7240,12 +7240,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PHILIP MORRIS INTL INC</t>
+          <t>Philip Morris Operations AD Ni</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>philipmorrisintlinc</t>
+          <t>philipmorrisoperationsadni</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7282,12 +7282,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Philip Morris Operations AD Ni</t>
+          <t>Philip Morris Pakistan Ltd</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>philipmorrisoperationsadni</t>
+          <t>philipmorrispakistanltd</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7324,22 +7324,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Philip Morris Pakistan Ltd</t>
+          <t>PICAU HOLD LLC/HOLD CORP</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>philipmorrispakistanltd</t>
+          <t>picauholdllcholdcorp</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7366,12 +7366,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PICAU HOLD LLC/HOLD CORP</t>
+          <t>pingmei coal</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>picauholdllcholdcorp</t>
+          <t>pingmeicoal</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7408,22 +7408,22 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pingmei coal</t>
+          <t>Poongsan Corp</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Klyngebomber</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>pingmeicoal</t>
+          <t>poongsancorp</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7450,7 +7450,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Poongsan Corp</t>
+          <t>Poongsan Holdings Corp</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>poongsancorp</t>
+          <t>poongsanholdingscorp</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7492,22 +7492,22 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Poongsan Holdings Corp</t>
+          <t>PrairieSky Royalty Ltd</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Klyngebomber</t>
+          <t>Oliesand</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>poongsanholdingscorp</t>
+          <t>prairieskyroyaltyltd</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7534,22 +7534,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PrairieSky Royalty Ltd</t>
+          <t>PROMSVYAZBANK OJSC</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Oliesand</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>prairieskyroyaltyltd</t>
+          <t>promsvyazbankojsc</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7576,22 +7576,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PROMSVYAZBANK OJSC</t>
+          <t>PT ADARO INDONESIA</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>promsvyazbankojsc</t>
+          <t>ptadaroindonesia</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7618,22 +7618,22 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PT ADARO INDONESIA</t>
+          <t>Raytheon Co</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Atomvåben</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ptadaroindonesia</t>
+          <t>raytheonco</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7660,7 +7660,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Raytheon Co</t>
+          <t>REYNOLDS AMERICAN INC</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7670,12 +7670,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Atomvåben</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>raytheonco</t>
+          <t>reynoldsamericaninc</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7702,12 +7702,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>REYNOLDS AMERICAN INC</t>
+          <t>RLX Technology Inc</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>reynoldsamericaninc</t>
+          <t>rlxtechnologyinc</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7744,22 +7744,22 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RLX Technology Inc</t>
+          <t>Rosneft Oil Co PJSC</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>rlxtechnologyinc</t>
+          <t>rosneftoilcopjsc</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7786,7 +7786,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Rosneft Oil Co PJSC</t>
+          <t>ROSSELKHOZBANK</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>rosneftoilcopjsc</t>
+          <t>rosselkhozbank</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7828,7 +7828,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ROSSELKHOZBANK</t>
+          <t>Rostec State Corp</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7838,12 +7838,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Klyngebomber</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>rosselkhozbank</t>
+          <t>rostecstatecorp</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7870,7 +7870,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Rostec State Corp</t>
+          <t>Rostelecom</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7880,12 +7880,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Klyngebomber</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>rostecstatecorp</t>
+          <t>rostelecom</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7912,22 +7912,22 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Rostelecom</t>
+          <t>S&amp;T Dynamics Co Ltd</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Landminer</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>rostelecom</t>
+          <t>stdynamicscoltd</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7954,96 +7954,96 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>S&amp;T Dynamics Co Ltd</t>
+          <t>SAUDI ARABIAN OIL CO</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Landminer</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>stdynamicscoltd</t>
+          <t>saudiarabianoilco</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['SA14TG012N13']</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabian Oil Co.']</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabian Oil Co.']</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Rødovre']</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>S&amp;T Holdings Co Ltd</t>
+          <t>Saudi Basic Industries Corp</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Landminer</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>stholdingscoltd</t>
+          <t>saudibasicindustriescorp</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>['JP3752900005']</t>
+          <t>['SA0007879121']</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>['Japan', 'Japan Post Holdings Co. Ltd.', nan]</t>
+          <t>[nan, 'Saudi-Arabien']</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>['Japan Post Holdings Co. Ltd.', 'Japan Post Holdings Co Ltd', 'Japan Post Holdings Co., Ltd.']</t>
+          <t>['Saudi Basic Industries Corp', 'Saudi Basic Industries Corp.']</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>['Fanø', 'Rødovre', 'Esbjerg', 'Aarhus']</t>
+          <t>['Mariagerfjord', 'Fanø']</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SAUDI ARABIAN OIL CO</t>
+          <t>Sberbank of Russia PJSC</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8053,91 +8053,91 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>saudiarabianoilco</t>
+          <t>sberbankofrussiapjsc</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>['SA14TG012N13']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>['Saudi Arabian Oil Co.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>['Saudi Arabian Oil Co.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>['Rødovre']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Saudi Basic Industries Corp</t>
+          <t>Scandinavian Tobacco Group A/S</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>saudibasicindustriescorp</t>
+          <t>scandinaviantobaccogroupas</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>['SA0007879121']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>[nan, 'Saudi-Arabien']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>['Saudi Basic Industries Corp', 'Saudi Basic Industries Corp.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>['Mariagerfjord', 'Fanø']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sberbank of Russia PJSC</t>
+          <t>Semirara Mining &amp; Power Corp</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>sberbankofrussiapjsc</t>
+          <t>semiraraminingpowercorp</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8164,22 +8164,22 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Scandinavian Tobacco Group A/S</t>
+          <t>Serba Dinamik Holdings Bhd</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>MY</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Forretningsetik</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>scandinaviantobaccogroupas</t>
+          <t>serbadinamikholdingsbhd</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8206,7 +8206,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SCIE</t>
+          <t>Shaanxi Coal Industry Co Ltd</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8221,49 +8221,49 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>scie</t>
+          <t>shaanxicoalindustrycoltd</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>['CNE000001P78', 'CNE1000008S5', 'FR0014000MR3', 'GB0032398678', 'US1011371077', 'US18064PAC32', 'US18064PAD15', 'US28176E1082', 'US30063P1057', 'US3755581036', 'US4131971040', 'US45569KAA16', 'US64125C1099', 'US8835561023', 'XS1716945586', 'XS2010032022', 'XS2058556619', 'XS2070192591', 'XS2407914394', 'XS2491664137', 'XS2557526345', 'XS2579480307', 'XS2676883114']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>['Kina', 'Eurofins Scientific SE', 'Frankrig', nan, 'Judges Scientific Plc', 'Boston Scientific Corp', 'Boston Scientific Corp.', 'USA', 'Clarivate Science Holdings Corp', 'Edwards Lifesciences', 'Edwards Lifesciences Corp', 'EDWARDS LIFESCIENCES CORP', 'Edwards Lifesciences Corp.', 'Exact Sciences Corp', 'Exact Sciences Corp.', 'Gilead Science', 'Gilead Sciences', 'Gilead Sciences Inc', 'GILEAD SCIENCES INC', 'Gilead Sciences Inc.', 'Harmony Biosciences Holdings I', 'PRA HEALTH SCIENCES INC', 'Neurocrine Biosciences Inc', 'Neurocrine Biosciences Inc.', 'Thermo Fischer Scientific Inc.', 'Thermo Fisher Scientific', 'Thermo Fisher Scientific Inc', 'Thermo Fisher Scientific Inc.', '3.25% Eurofins Scientific SE ', 'Eurofins Scientific', 'Eurofins Scientific SE 31.12.2177', 'Luxembourg', 'Thermo Fisher Scientific Inc 01.10.2031', 'THERMO FISHER SCIENTIFIC (FINANCE I) BV', 'Thermo Fisher Scientific Finance I BV 18.11.2025', 'EUROFINS SCIENTIFIC SE  ', '6.75% Eurofins Scientific SE ', 'EU']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>['Sinoma Science &amp; Technology Co.', 'Goldwind Science &amp; Technology', 'Eurofins Scientific SE', 'Judges Scientific Plc', 'Boston Scientific Corp', 'Boston Scientific Corp.', 'CLARIV SCI HLD CORP 3.875% 01.07.2028', 'CLARIV SCI HLD CORP 4.875% 01.07.2029', 'Edwards Lifesciences', 'EDWARDS LIFESCIENCES CORP', 'Edwards Lifesciences Corp', 'Edwards Lifesciences Corp.', 'Exact Sciences Corp', 'Exact Sciences Corp.', 'EXACT Sciences Corp.', 'Gilead Science', 'GILEAD SCIENCES INC', 'Gilead Sciences Inc', 'Gilead Sciences Inc.', 'Gilead Sciences', 'Gilead Sciences, Inc.', 'Harmony Biosciences Holdings I', '2.88% Pra Health Scien 7/2026', 'Neurocrine Biosciences Inc.', 'Neurocrine Biosciences Inc', 'Thermo Fisher Scientific Inc.', 'Thermo Fisher Scientific Inc', 'Thermo Fischer Scientific Inc.', 'THERMO FISHER SCIENTIFIC INC', 'Thermo Fisher Scientific', 'Thermo\xa0Fisher\xa0Scientific', 'Thermo Fisher Scientific, Inc.', '3.25% Eurofins Scientific SE ', 'Eurofins Scientific', '3,25 ERFFP PERPETUAL (HYBRID)', 'EUROFINS SCIENTIFIC SE PERP', 'ERFFP 3 1/4 PERP', 'Thermo Fisher Scientific Inc 1.75%', 'Thermo Fisher Scientific Inc 01.10.2031', 'TMO 0 7/8 10/01/31', 'Boston Scientific Corporation 0.63%', 'Thermo Fisher Scientific Finance I BV 18.11.2025', 'Thermo Fisher Scientific (Finance I) BV', 'Thermo Fisher Scientific (Finance I) Bv 0% 20251118', 'TMO 0 11/18/25', 'EUROFINS SCIENTIFIC SE 4% 06.07.2029', 'Eurofins Scientific SE 4%', '3,65 TMO 21-11-2034', '6.75% Eurofins Scientific SE ', 'ERFFP 6 3/4 PERP', 'EUROFINS SCIENTIFIC SE 4.75% 06.09.2030']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>['Fanø', 'Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Guldborgsund', 'Holstebro', 'Horsens', 'Hvidovre', 'Høje Taastrup', 'Ikast-Brande', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Mariagerfjord', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Rudersdal', 'Rødovre', 'Skanderborg', 'Solrød', 'Svendborg', 'Thisted', 'Tønder', 'Vallensbæk', 'Viborg', 'Aabenraa', 'Egedal', 'Favrskov', 'Faaborg-Midtfyn', 'Hedensted', 'Helsingør', 'Hørsholm', 'Middelfart', 'Norddjurs', 'Slagelse', 'Syddjurs', 'Odense', 'Aarhus', 'Region Sjælland', 'Esbjerg', 'Vejen', 'Brønderslev', 'Herning', 'Skive', 'Ballerup', 'Brøndby', 'Faxe', 'Fredensborg', 'Fredericia', 'Furesø', 'Greve', 'Hillerød', 'Kerteminde', 'Kolding', 'Køge', 'Lemvig', 'Lolland', 'Morsø', 'Næstved', 'Randers', 'Region Midtjylland', 'Region Nordjylland', 'Silkeborg', 'Sorø', 'Struer', 'Varde', 'Vesthimmerland', 'København', 'Aalborg', 'Ringkøbing-Skjern', 'Frederikssund', 'Haderslev', 'Gladsaxe', 'Region Hovedstaden', 'Kalundborg', 'Holbæk']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Semirara Mining &amp; Power Corp</t>
+          <t>Shezan International Ltd</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Arbejdstagerrettigheder</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>semiraraminingpowercorp</t>
+          <t>shezaninternationalltd</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8290,22 +8290,22 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Serba Dinamik Holdings Bhd</t>
+          <t>Sila Holding AD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Forretningsetik</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>serbadinamikholdingsbhd</t>
+          <t>silaholdingad</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8332,22 +8332,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Shaanxi Coal Industry Co Ltd</t>
+          <t>Sinnar Bidi Udyog Ltd</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>shaanxicoalindustrycoltd</t>
+          <t>sinnarbidiudyogltd</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8374,22 +8374,22 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Shezan International Ltd</t>
+          <t>Sligro Food Group NV</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Arbejdstagerrettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>shezaninternationalltd</t>
+          <t>sligrofoodgroupnv</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8416,12 +8416,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sila Holding AD</t>
+          <t>Smoore International Holdings</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>silaholdingad</t>
+          <t>smooreinternationalholdings</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8458,22 +8458,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sinnar Bidi Udyog Ltd</t>
+          <t>Socfin</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>sinnarbidiudyogltd</t>
+          <t>socfin</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8500,12 +8500,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sligro Food Group NV</t>
+          <t>Societe Ivoirienne des Tabacs</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>sligrofoodgroupnv</t>
+          <t>societeivoiriennedestabacs</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8542,22 +8542,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Smoore International Holdings</t>
+          <t>SOGB</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>smooreinternationalholdings</t>
+          <t>sogb</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8584,12 +8584,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Socfin</t>
+          <t>S-Oil Corp</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>socfin</t>
+          <t>soilcorp</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8626,12 +8626,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Societe Ivoirienne des Tabacs</t>
+          <t>Starfleet Innotech Inc</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>societeivoiriennedestabacs</t>
+          <t>starfleetinnotechinc</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8668,22 +8668,22 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SOGB</t>
+          <t>Steel Authority Of India</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Arbejdstagerrettigheder</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>sogb</t>
+          <t>steelauthorityofindia</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8710,22 +8710,22 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>S-Oil Corp</t>
+          <t>Suncor Energy Inc</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Oliesand</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>soilcorp</t>
+          <t>suncorenergyinc</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8752,22 +8752,22 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Starfleet Innotech Inc</t>
+          <t>SUNCOR ENERGY VENTURES</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Oliesand</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>starfleetinnotechinc</t>
+          <t>suncorenergyventures</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8794,22 +8794,22 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Steel Authority Of India</t>
+          <t>Supreme PLC</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Arbejdstagerrettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>steelauthorityofindia</t>
+          <t>supremeplc</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8836,22 +8836,22 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Suncor Energy Inc</t>
+          <t>Swedish Match AB</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Oliesand</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>suncorenergyinc</t>
+          <t>swedishmatchab</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8878,22 +8878,22 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SUNCOR ENERGY VENTURES</t>
+          <t>Tanzania Cigarette Co Ltd</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TZ</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Oliesand</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>suncorenergyventures</t>
+          <t>tanzaniacigarettecoltd</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8920,22 +8920,22 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Supreme PLC</t>
+          <t>TATA Advanced Systems Ltd</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Atomvåben</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>supremeplc</t>
+          <t>tataadvancedsystemsltd</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8962,64 +8962,64 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Swedish Match AB</t>
+          <t>Tata Consultancy Services Ltd</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Atomvåben</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>swedishmatchab</t>
+          <t>tataconsultancyservicesltd</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['INE467B01029']</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Indien']</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Tata Consultancy Services Ltd.']</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Fanø']</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Tanzania Cigarette Co Ltd</t>
+          <t>Tata Investment Corp Ltd</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TZ</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Atomvåben</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>tanzaniacigarettecoltd</t>
+          <t>tatainvestmentcorpltd</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9046,7 +9046,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>TATA Advanced Systems Ltd</t>
+          <t>Tata Power Co Ltd/The</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -9056,12 +9056,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Atomvåben</t>
+          <t>Atomvåben,Termisk Kul</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>tataadvancedsystemsltd</t>
+          <t>tatapowercoltdthe</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9088,7 +9088,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd</t>
+          <t>Tata Sons Pvt Ltd</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -9098,54 +9098,54 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Atomvåben</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>tataconsultancyservicesltd</t>
+          <t>tatasonspvtltd</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>['INE467B01029']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>['Indien']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>['Tata Consultancy Services Ltd.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>['Fanø']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Tata Investment Corp Ltd</t>
+          <t>Tatneft PJSC</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Atomvåben</t>
+          <t>Menneskerettigheder,Oliesand</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>tatainvestmentcorpltd</t>
+          <t>tatneftpjsc</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9172,22 +9172,22 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Tata Power Co Ltd/The</t>
+          <t>TBEA Co Ltd</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Atomvåben,Termisk Kul</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>tatapowercoltdthe</t>
+          <t>tbeacoltd</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9214,22 +9214,22 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Tata Sons Pvt Ltd</t>
+          <t>TDTEC</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>tatasonspvtltd</t>
+          <t>tdtec</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9256,22 +9256,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Tatneft PJSC</t>
+          <t>Terracom Ltd</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Menneskerettigheder,Oliesand</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>tatneftpjsc</t>
+          <t>terracomltd</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9298,12 +9298,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>TBEA Co Ltd</t>
+          <t>Thungela Resources Ltd</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9313,7 +9313,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>tbeacoltd</t>
+          <t>thungelaresourcesltd</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9340,22 +9340,22 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TDTEC</t>
+          <t>Tongaat Hulett Pvt Ltd</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Svindel</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>tdtec</t>
+          <t>tongaathulettpvtltd</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9382,22 +9382,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Terracom Ltd</t>
+          <t>TURNING POINT BRANDS INC</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>terracomltd</t>
+          <t>turningpointbrandsinc</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9424,22 +9424,22 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Thungela Resources Ltd</t>
+          <t>Tutunski Kombinat AD</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>thungelaresourcesltd</t>
+          <t>tutunskikombinatad</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9466,22 +9466,22 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Tongaat Hulett Pvt Ltd</t>
+          <t>Uchumi Supermarkets Ltd</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KE</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Svindel</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>tongaathulettpvtltd</t>
+          <t>uchumisupermarketsltd</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9508,12 +9508,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>TURNING POINT BRANDS INC</t>
+          <t>Union Investment Corp PLC</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>turningpointbrandsinc</t>
+          <t>unioninvestmentcorpplc</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9550,12 +9550,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Tutunski Kombinat AD</t>
+          <t>Union Tobacco &amp; Cigarette Indu</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>tutunskikombinatad</t>
+          <t>uniontobaccocigaretteindu</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9592,22 +9592,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Uchumi Supermarkets Ltd</t>
+          <t>Unitech Ltd</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>KE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Forretningsetik</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>uchumisupermarketsltd</t>
+          <t>unitechltd</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9634,22 +9634,22 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Union Investment Corp PLC</t>
+          <t>United Aircraft Corp PJSC</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>unioninvestmentcorpplc</t>
+          <t>unitedaircraftcorppjsc</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9676,22 +9676,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Union Tobacco &amp; Cigarette Indu</t>
+          <t>United Tractors Tbk PT</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>uniontobaccocigaretteindu</t>
+          <t>unitedtractorstbkpt</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9718,22 +9718,22 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Unitech Ltd</t>
+          <t>Universal Corp/VA</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Forretningsetik</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>unitechltd</t>
+          <t>universalcorpva</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9760,22 +9760,22 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>United Aircraft Corp PJSC</t>
+          <t>Vapor Group Inc</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>unitedaircraftcorppjsc</t>
+          <t>vaporgroupinc</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9802,22 +9802,22 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>United Tractors Tbk PT</t>
+          <t>VEB.RF</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>unitedtractorstbkpt</t>
+          <t>vebrf</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9844,7 +9844,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Universal Corp/VA</t>
+          <t>VECTOR GROUP LTD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>universalcorpva</t>
+          <t>vectorgroupltd</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9886,7 +9886,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Vapor Group Inc</t>
+          <t>VPR Brands LP</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>vaporgroupinc</t>
+          <t>vprbrandslp</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9928,22 +9928,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>VEB.RF</t>
+          <t>VST Industries Ltd</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>vebrf</t>
+          <t>vstindustriesltd</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9970,22 +9970,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>VECTOR GROUP LTD</t>
+          <t>VTB Bank PJSC</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Menneskerettigheder</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>vectorgroupltd</t>
+          <t>vtbbankpjsc</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -10012,22 +10012,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>VPR Brands LP</t>
+          <t>Walchandnagar Industries Ltd</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Atomvåben</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>vprbrandslp</t>
+          <t>walchandnagarindustriesltd</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10054,22 +10054,22 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>VST Industries Ltd</t>
+          <t>Washington H Soul Pattinson &amp;</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>vstindustriesltd</t>
+          <t>washingtonhsoulpattinson</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10096,22 +10096,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>VTB Bank PJSC</t>
+          <t>West Indian Tobacco Co Ltd/The</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>vtbbankpjsc</t>
+          <t>westindiantobaccocoltdthe</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10138,22 +10138,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Walchandnagar Industries Ltd</t>
+          <t>Whitehaven Coal Ltd</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Atomvåben</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>walchandnagarindustriesltd</t>
+          <t>whitehavencoalltd</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10180,22 +10180,22 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Washington H Soul Pattinson &amp;</t>
+          <t>Wicaksana Overseas Internation</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>washingtonhsoulpattinson</t>
+          <t>wicaksanaoverseasinternation</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10222,22 +10222,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>West Indian Tobacco Co Ltd/The</t>
+          <t>Wirecard AG</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Øvrige</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>westindiantobaccocoltdthe</t>
+          <t>wirecardag</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10264,22 +10264,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Whitehaven Coal Ltd</t>
+          <t>Wismilak Inti Makmur Tbk PT</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Termisk Kul</t>
+          <t>Tobak</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>whitehavencoalltd</t>
+          <t>wismilakintimakmurtbkpt</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10306,22 +10306,22 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Wicaksana Overseas Internation</t>
+          <t>XSCE</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>wicaksanaoverseasinternation</t>
+          <t>xsce</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10348,22 +10348,22 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Wirecard AG</t>
+          <t>Yancoal Australia Ltd</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Øvrige</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>wirecardag</t>
+          <t>yancoalaustralialtd</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10390,22 +10390,22 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Wismilak Inti Makmur Tbk PT</t>
+          <t>YANCOAL INTL RES DEV</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Tobak</t>
+          <t>Termisk Kul</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>wismilakintimakmurtbkpt</t>
+          <t>yancoalintlresdev</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10432,7 +10432,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>XSCE</t>
+          <t>Yankuang Energy Group Co Ltd</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>xsce</t>
+          <t>yankuangenergygroupcoltd</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10474,12 +10474,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Yancoal Australia Ltd</t>
+          <t>YANKUANG GROUP CAYMAN</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>yancoalaustralialtd</t>
+          <t>yankuanggroupcayman</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10516,12 +10516,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>YANCOAL INTL RES DEV</t>
+          <t>YITAI COAL</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>yancoalintlresdev</t>
+          <t>yitaicoal</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10558,7 +10558,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Yankuang Energy Group Co Ltd</t>
+          <t>YQMY</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>yankuangenergygroupcoltd</t>
+          <t>yqmy</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10592,132 +10592,6 @@
         </is>
       </c>
       <c r="H242" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>YANKUANG GROUP CAYMAN</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Termisk Kul</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>yankuanggroupcayman</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>YITAI COAL</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Termisk Kul</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>yitaicoal</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>YQMY</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Termisk Kul</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>yqmy</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
